--- a/aller1_data.xlsx
+++ b/aller1_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
+    <t>Price 1PAX</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
   </si>
   <si>
     <t>Tanger Ville - Tarifa</t>
@@ -38,24 +38,6 @@
   </si>
   <si>
     <t>40,25</t>
-  </si>
-  <si>
-    <t>Ceuta - Algésiras</t>
-  </si>
-  <si>
-    <t>Naviera Armas Trasmediterranea</t>
-  </si>
-  <si>
-    <t>34,90</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>Balearia</t>
-  </si>
-  <si>
-    <t>38,00</t>
   </si>
 </sst>
 </file>
@@ -405,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,8 +395,8 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -445,48 +427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aller1_data.xlsx
+++ b/aller1_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>Price 1PAX</t>
+  </si>
+  <si>
+    <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>Tanger Med - Algésiras</t>
+  </si>
+  <si>
+    <t>FRS DFDS</t>
+  </si>
+  <si>
+    <t>27,50</t>
   </si>
 </sst>
 </file>
@@ -49,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,11 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -394,6 +413,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aller1_data.xlsx
+++ b/aller1_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,57 @@
   </si>
   <si>
     <t>27,50</t>
+  </si>
+  <si>
+    <t>159,50</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>Tanger Ville - Tarifa</t>
+  </si>
+  <si>
+    <t>40,25</t>
+  </si>
+  <si>
+    <t>Ceuta - Algésiras</t>
+  </si>
+  <si>
+    <t>Balearia</t>
+  </si>
+  <si>
+    <t>35,00</t>
+  </si>
+  <si>
+    <t>36,00</t>
+  </si>
+  <si>
+    <t>Naviera Armas Trasmediterranea</t>
+  </si>
+  <si>
+    <t>36,93</t>
+  </si>
+  <si>
+    <t>AML - Africa Moroco Link</t>
+  </si>
+  <si>
+    <t>23,00</t>
+  </si>
+  <si>
+    <t>29,00</t>
+  </si>
+  <si>
+    <t>32,28</t>
+  </si>
+  <si>
+    <t>211,95</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>38,00</t>
   </si>
 </sst>
 </file>
@@ -387,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +446,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,6 +478,300 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
